--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>849405.3569510086</v>
+        <v>774817.3035652032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009817</v>
+        <v>404724.2260944798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11762410.58428957</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7631215.020727899</v>
+        <v>7645104.614253853</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.59244068996242</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.906662343224887</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>209.8943220811313</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.31110394229523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>12.20112622735862</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1311,52 +1311,52 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="E11" t="n">
-        <v>38.19053515138899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35.98793427391205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.80700501538428</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.6136570700264</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>413.9934051322452</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>67.62176764444246</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>297.1480349303966</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>143.5360797935206</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>58.02431669862141</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H15" t="n">
-        <v>107.898099562911</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493642</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.6706769332459</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>17.64693460968148</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.03914902326065</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H17" t="n">
-        <v>7.058423000547998</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>4.715060355622043</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.6429625774031</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>136.902442604858</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>17.64693460968146</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>19.52128082800854</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.9934051322451</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>40.63129064102394</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231963</v>
+        <v>58.21273057308963</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>158.6706769332458</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>197.341002096764</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8952929634875</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.5103304121437</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2869936420407</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>17.64693460968146</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>24.40368540321276</v>
+        <v>222.3536427742455</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>83.59830597394826</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>112.144358069484</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>251.6888992276662</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2851,16 +2851,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>140.5244426134296</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.7834924758486</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,31 +2994,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.48345164522459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>134.2439092740083</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>130.4850290902703</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>9.275596830496657</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>22.23783788499738</v>
       </c>
       <c r="G35" t="n">
-        <v>81.41237635996006</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.43141783824916</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>102.9195131586199</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>234.565844849874</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>121.2699779972374</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>44.69980233966131</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>280.1033070984077</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>306.8133326045273</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.45572650406979</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>431.322492160084</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U3" t="n">
-        <v>909.9233770359267</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V3" t="n">
-        <v>674.771268804184</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W3" t="n">
-        <v>431.322492160084</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X3" t="n">
-        <v>431.322492160084</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>431.322492160084</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.215552771464</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>311.266984752715</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>164.7324267796</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>26.0016013622155</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>752.0426887620188</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>544.1911885564859</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y6" t="n">
-        <v>336.430889791532</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>718.7806050553886</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>962.2293816994886</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="E9" t="n">
         <v>20.03527576299844</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.84447166430675</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5004,10 +5004,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5020,43 +5020,43 @@
         <v>1104.626054809422</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E11" t="n">
-        <v>1066.049756676706</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032605</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>232.8969991388428</v>
+        <v>225.64353524134</v>
       </c>
       <c r="C12" t="n">
-        <v>58.44396985771576</v>
+        <v>51.19050596021296</v>
       </c>
       <c r="D12" t="n">
-        <v>58.44396985771576</v>
+        <v>51.19050596021296</v>
       </c>
       <c r="E12" t="n">
-        <v>58.44396985771576</v>
+        <v>51.19050596021296</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>51.19050596021296</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>51.19050596021296</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>411.954469746149</v>
+        <v>555.4329354292295</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5150,22 +5150,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>902.7461548375312</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V12" t="n">
-        <v>902.7461548375312</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W12" t="n">
-        <v>648.5087981093295</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="X12" t="n">
-        <v>440.6572979037967</v>
+        <v>433.4038340062939</v>
       </c>
       <c r="Y12" t="n">
-        <v>232.8969991388428</v>
+        <v>225.64353524134</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F13" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1611.93134762825</v>
+        <v>1039.881094134864</v>
       </c>
       <c r="C14" t="n">
-        <v>1611.93134762825</v>
+        <v>1039.881094134864</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.665649021499</v>
+        <v>1039.881094134864</v>
       </c>
       <c r="E14" t="n">
-        <v>867.8773964232548</v>
+        <v>1039.881094134864</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8914916336473</v>
+        <v>628.8951893452563</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721947</v>
+        <v>210.7200326460188</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721947</v>
+        <v>210.7200326460188</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827224</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977719</v>
+        <v>415.1943883367683</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480083</v>
+        <v>799.8264852341947</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640747</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938975</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653887</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250555</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860973</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860973</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860973</v>
+        <v>2206.003582293108</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860973</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860973</v>
+        <v>1986.443736779945</v>
       </c>
       <c r="V14" t="n">
-        <v>1611.93134762825</v>
+        <v>1655.380849436374</v>
       </c>
       <c r="W14" t="n">
-        <v>1611.93134762825</v>
+        <v>1655.380849436374</v>
       </c>
       <c r="X14" t="n">
-        <v>1611.93134762825</v>
+        <v>1281.915091175294</v>
       </c>
       <c r="Y14" t="n">
-        <v>1611.93134762825</v>
+        <v>1281.915091175294</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>838.8642769104745</v>
+        <v>794.3005707992622</v>
       </c>
       <c r="C15" t="n">
-        <v>664.4112476293475</v>
+        <v>619.8475415181352</v>
       </c>
       <c r="D15" t="n">
-        <v>519.4253084439731</v>
+        <v>470.913131856884</v>
       </c>
       <c r="E15" t="n">
-        <v>360.1878534385177</v>
+        <v>311.6756768514285</v>
       </c>
       <c r="F15" t="n">
-        <v>360.1878534385177</v>
+        <v>253.0652559437301</v>
       </c>
       <c r="G15" t="n">
-        <v>221.9106627267623</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="H15" t="n">
-        <v>112.9226833702866</v>
+        <v>115.0420614211007</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877812</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K15" t="n">
-        <v>276.6600398753088</v>
+        <v>351.2426098932701</v>
       </c>
       <c r="L15" t="n">
-        <v>603.159497053917</v>
+        <v>547.5631775848224</v>
       </c>
       <c r="M15" t="n">
-        <v>829.8444494186646</v>
+        <v>1043.628006052599</v>
       </c>
       <c r="N15" t="n">
-        <v>1290.000073167525</v>
+        <v>1568.529207830409</v>
       </c>
       <c r="O15" t="n">
-        <v>1644.53689194854</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860973</v>
+        <v>2297.376506858684</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860973</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.080877860973</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S15" t="n">
-        <v>1912.080877860973</v>
+        <v>2295.02858090153</v>
       </c>
       <c r="T15" t="n">
-        <v>1912.080877860973</v>
+        <v>2095.694235349244</v>
       </c>
       <c r="U15" t="n">
-        <v>1912.080877860973</v>
+        <v>1867.517171749761</v>
       </c>
       <c r="V15" t="n">
-        <v>1676.928769629231</v>
+        <v>1632.365063518019</v>
       </c>
       <c r="W15" t="n">
-        <v>1422.691412901029</v>
+        <v>1378.127706789817</v>
       </c>
       <c r="X15" t="n">
-        <v>1214.839912695496</v>
+        <v>1170.276206584284</v>
       </c>
       <c r="Y15" t="n">
-        <v>1007.079613930543</v>
+        <v>962.5159078193303</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="C16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="D16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="E16" t="n">
-        <v>459.9924103041401</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F16" t="n">
-        <v>368.0336739170081</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G16" t="n">
-        <v>198.7261280777931</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727434</v>
+        <v>94.61295399245031</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473019</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519034</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922426</v>
+        <v>471.3735460023451</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856859</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041401</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041401</v>
+        <v>356.3483963502906</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041401</v>
+        <v>356.3483963502906</v>
       </c>
       <c r="W16" t="n">
-        <v>459.9924103041401</v>
+        <v>66.93122631333</v>
       </c>
       <c r="X16" t="n">
-        <v>459.9924103041401</v>
+        <v>66.93122631333</v>
       </c>
       <c r="Y16" t="n">
-        <v>459.9924103041401</v>
+        <v>66.93122631333</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.5386780278486</v>
+        <v>1610.258004102812</v>
       </c>
       <c r="C17" t="n">
-        <v>214.5386780278486</v>
+        <v>1241.295487162401</v>
       </c>
       <c r="D17" t="n">
-        <v>214.5386780278486</v>
+        <v>883.0297885556504</v>
       </c>
       <c r="E17" t="n">
-        <v>214.5386780278486</v>
+        <v>883.0297885556504</v>
       </c>
       <c r="F17" t="n">
-        <v>214.5386780278486</v>
+        <v>472.0438837660428</v>
       </c>
       <c r="G17" t="n">
-        <v>214.5386780278486</v>
+        <v>53.86872706680532</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.86872706680532</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>147.2929132168158</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>415.194388336768</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>799.8264852341945</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280443</v>
+        <v>1244.410349176442</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>2386.997176142746</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.1385180919704</v>
+        <v>1996.857844166934</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>816.2886862824824</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>641.8356570013555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>492.9012473401042</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>333.6637923346487</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>187.1292343615337</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>113.8920892923635</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>351.2426098932702</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>731.794072001526</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1227.858900469303</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1568.529207830409</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2297.376506858684</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2317.016696384751</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2117.682350832464</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>1889.505287232981</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1654.353179001239</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1400.115822273037</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1192.264322067504</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>984.5040233025504</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>546.4805193761947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="C19" t="n">
-        <v>377.5443364482878</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="D19" t="n">
-        <v>377.5443364482878</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="E19" t="n">
-        <v>229.6312428658947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F19" t="n">
-        <v>82.74129536798435</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>356.3483963502906</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>338.5232098758649</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064344</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064344</v>
+        <v>49.10603983890427</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>554.3221432721089</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="C20" t="n">
-        <v>534.603677789272</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="D20" t="n">
-        <v>534.603677789272</v>
+        <v>1264.055353925994</v>
       </c>
       <c r="E20" t="n">
-        <v>534.603677789272</v>
+        <v>878.2671013277493</v>
       </c>
       <c r="F20" t="n">
-        <v>534.603677789272</v>
+        <v>467.2811965381418</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>147.292913216816</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>415.1943883367682</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>799.8264852341948</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1244.410349176443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1681.556047289583</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2049.152696194594</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2325.213548478439</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2414.260284227007</v>
       </c>
       <c r="U20" t="n">
-        <v>2388.358616186807</v>
+        <v>2414.260284227007</v>
       </c>
       <c r="V20" t="n">
-        <v>2057.295728843236</v>
+        <v>2414.260284227007</v>
       </c>
       <c r="W20" t="n">
-        <v>1704.527073573122</v>
+        <v>2414.260284227007</v>
       </c>
       <c r="X20" t="n">
-        <v>1331.061315312042</v>
+        <v>2040.794525965927</v>
       </c>
       <c r="Y20" t="n">
-        <v>940.9219833362306</v>
+        <v>1650.655193990115</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>737.0662297124688</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>562.6132004313419</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>413.6787907700906</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>254.4413357646351</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>107.9067777915201</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>167.0117154765666</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>547.5631775848224</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1043.628006052599</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1568.529207830409</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>1982.295581432526</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2297.376506858684</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2455.301991945213</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2398.06765085842</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2237.794239814737</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2038.45989426245</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>1810.282830662968</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1575.130722431225</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1320.893365703024</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1113.041865497491</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>905.2815667325369</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="C22" t="n">
-        <v>377.5443364482878</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="D22" t="n">
-        <v>377.5443364482878</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="E22" t="n">
-        <v>229.6312428658947</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="F22" t="n">
-        <v>82.74129536798435</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="G22" t="n">
-        <v>82.74129536798435</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>94.61295399245033</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>208.3725712297702</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>338.7052604257291</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>471.3735460023452</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>577.8978852021171</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5271778068974</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>356.3483963502906</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>338.5232098758649</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>49.10603983890427</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064344</v>
+        <v>49.10603983890427</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1192.157102157134</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C23" t="n">
-        <v>823.1945852167225</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>464.928886609972</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V23" t="n">
-        <v>1968.896274197068</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="W23" t="n">
-        <v>1968.896274197068</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X23" t="n">
-        <v>1968.896274197068</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.756942221256</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2107.405821939171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1992.620445413571</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C26" t="n">
-        <v>1623.65792847316</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D26" t="n">
-        <v>1265.392229866409</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E26" t="n">
-        <v>879.603977268165</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
         <v>625.3727659270879</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674651</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W26" t="n">
-        <v>2366.086203674651</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X26" t="n">
-        <v>1992.620445413571</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y26" t="n">
-        <v>1992.620445413571</v>
+        <v>1893.689751284805</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036444</v>
@@ -6323,31 +6323,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6411,13 +6411,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036444</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
         <v>53.94298182036444</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.1711973675267</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C29" t="n">
-        <v>412.2086804271149</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036444</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.483574129469</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859355</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="X29" t="n">
-        <v>1167.771037431648</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.771037431648</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E31" t="n">
         <v>53.94298182036444</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>68.57273095695493</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>68.57273095695493</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="X31" t="n">
-        <v>68.57273095695493</v>
+        <v>702.5573625732399</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1177.911859172213</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.911859172213</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.911859172213</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1236065739691</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6703,7 +6703,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.483574129469</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859355</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X32" t="n">
-        <v>1177.911859172213</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1177.911859172213</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6779,49 +6779,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
         <v>53.94298182036444</v>
@@ -6879,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>99.59950625323009</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>99.59950625323009</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1386.090004781549</v>
+        <v>1760.851696582593</v>
       </c>
       <c r="C35" t="n">
-        <v>1386.090004781549</v>
+        <v>1391.889179642181</v>
       </c>
       <c r="D35" t="n">
-        <v>1027.824306174799</v>
+        <v>1033.623481035431</v>
       </c>
       <c r="E35" t="n">
-        <v>1027.824306174799</v>
+        <v>647.8352284371863</v>
       </c>
       <c r="F35" t="n">
-        <v>616.8384013851912</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6967,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.090004781549</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.090004781549</v>
+        <v>2147.451536646714</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,31 +7028,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1189.50268270914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C38" t="n">
-        <v>1189.50268270914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>1189.50268270914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>1189.50268270914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2302.336936304455</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W38" t="n">
-        <v>1949.568281034341</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X38" t="n">
-        <v>1576.102522773261</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.102522773261</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7256,13 +7256,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>176.4379090903012</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2651.997775523615</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2433.363108495678</v>
       </c>
       <c r="U41" t="n">
-        <v>2669.933035536898</v>
+        <v>2433.363108495678</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536898</v>
+        <v>2433.363108495678</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266784</v>
+        <v>2080.594453225563</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>2080.594453225563</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1690.455121249752</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961344</v>
@@ -7490,16 +7490,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7514,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>840.8693068625893</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.915471247702</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D44" t="n">
-        <v>1133.649772640951</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E44" t="n">
-        <v>747.8615200427071</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>336.8756152530995</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>336.8756152530995</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287635</v>
+        <v>1231.008638838401</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>840.8693068625893</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
         <v>53.94298182036444</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>123.047446830095</v>
+        <v>274.3455134968399</v>
       </c>
       <c r="N12" t="n">
-        <v>343.3566784943937</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>184.7485327613344</v>
       </c>
       <c r="M15" t="n">
-        <v>257.3174518121235</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.65476256012155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>293.2505618014284</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>60.65058134701567</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>143.8138784638469</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>120.0869518323295</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.3489413910124</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,22 +22871,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>106.3287818932716</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>41.80066107978834</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>384.4284425830174</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.2220797075721</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4439542280423</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,10 +23159,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E11" t="n">
-        <v>343.7398349208728</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>109.0812781194718</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>82.70092208806017</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,16 +23390,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>138.217680340412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
         <v>161.6656840978772</v>
@@ -23475,7 +23475,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>143.1201845934542</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952547</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463312</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492363</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215387</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V14" t="n">
-        <v>30.60422353973826</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3.908985771118125</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>87.04489569476246</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.2743413282671</v>
+        <v>56.66199767592526</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663108</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>162.1850455722558</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.3818989996706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270811</v>
+        <v>137.788117693706</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781607</v>
+        <v>51.83555490345138</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802084</v>
+        <v>36.98188228487141</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191053</v>
+        <v>150.8852840987083</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T16" t="n">
-        <v>226.33686925111</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>316.8643497638092</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>155.2827925234213</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.3642470580309</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.66199767592525</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>21.76823432838788</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.7994718469072</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>234.4907087141465</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>345.751610942999</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.065601849496</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>159.9978528790433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>67.62176764444244</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>179.1836579111419</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>176.7329564170069</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2409063172053</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>78.43023200431347</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.4695617893551</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.27666136637444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4036579268715</v>
       </c>
       <c r="H22" t="n">
-        <v>127.6605584296514</v>
+        <v>157.0053510520544</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>137.7881176937059</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>51.83555490345137</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>36.9818822848714</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>150.8852840987082</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>213.7811872701283</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>225.4361251296812</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>234.4907087141465</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>303.3485730669221</v>
+        <v>105.3986156958894</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24411,22 +24411,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6835682680295</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>270.5894835939966</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>155.1871465140452</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>229.2066580650395</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>144.454446180205</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>261.2070929197286</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.1012017068702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>248.4899323894723</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>239.2460715881987</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>384.6382078567141</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3717936608349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.00254480832001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25365,13 +25365,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>279.8143285048607</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>172.3102008918374</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>46.03982426181349</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,16 +25599,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>129.7159104693102</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>224.2802725817785</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>59.30821556748145</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>43.81946566594945</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>62.91776807394172</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.128926848025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448693.3607796696</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448693.3607796695</v>
+        <v>448693.3607796696</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>628611.9105415219</v>
+        <v>729981.5974136594</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775112.3260770594</v>
+        <v>729981.5974136594</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775112.3260770595</v>
+        <v>729981.5974136594</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398033</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584594</v>
+        <v>231326.4874512437</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>231326.4874512437</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>231326.4874512437</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="K2" t="n">
         <v>245779.7185133938</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="M2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245779.7185133939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923565</v>
+        <v>38628.88112923561</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689334</v>
+        <v>326513.677765922</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328019</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>55256.55893426014</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213634</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138683</v>
+        <v>82704.25131371449</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112628</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>8599.193178783524</v>
       </c>
       <c r="F4" t="n">
-        <v>8990.265499845918</v>
+        <v>9253.72390068747</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361485</v>
+        <v>9253.72390068747</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361483</v>
+        <v>9253.72390068747</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
@@ -26444,19 +26444,19 @@
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
         <v>9371.018034361483</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221583</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>44420.7724568834</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638.760286980723</v>
+        <v>-8579.250333059714</v>
       </c>
       <c r="C6" t="n">
-        <v>84408.19181852843</v>
+        <v>72190.18119848796</v>
       </c>
       <c r="D6" t="n">
-        <v>84408.19181852849</v>
+        <v>72190.18119848799</v>
       </c>
       <c r="E6" t="n">
-        <v>85822.70431500394</v>
+        <v>74155.75172367944</v>
       </c>
       <c r="F6" t="n">
-        <v>-38937.85181253574</v>
+        <v>-155780.2904805478</v>
       </c>
       <c r="G6" t="n">
-        <v>2025.133082821012</v>
+        <v>170733.3872853742</v>
       </c>
       <c r="H6" t="n">
-        <v>187177.2224156229</v>
+        <v>170733.3872853742</v>
       </c>
       <c r="I6" t="n">
-        <v>187177.2224156229</v>
+        <v>125852.2497355436</v>
       </c>
       <c r="J6" t="n">
-        <v>124117.2798165167</v>
+        <v>118048.8660706975</v>
       </c>
       <c r="K6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698037</v>
       </c>
       <c r="L6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698037</v>
       </c>
       <c r="M6" t="n">
-        <v>178419.6394204092</v>
+        <v>172351.2256745901</v>
       </c>
       <c r="N6" t="n">
-        <v>137735.3505542361</v>
+        <v>98404.55735608927</v>
       </c>
       <c r="O6" t="n">
-        <v>139945.3597744966</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="P6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698037</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435334</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>325.6964302438608</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652434</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>613.8254979863033</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244081</v>
+        <v>290.6751695247355</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735533</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52.04723397322579</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628879</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893122</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.46177476825221</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628879</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893122</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628879</v>
+        <v>337.6689842839478</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893122</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714904</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512404</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407466</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991847</v>
+        <v>111.127949332301</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369467</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369473</v>
+        <v>206.6224700128967</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961234</v>
+        <v>229.9073097771148</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885468</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164272</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107248</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840198</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622606</v>
+        <v>82.24735029670722</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470661</v>
+        <v>29.83641167510343</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636451</v>
+        <v>5.731602506100503</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771922</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728832</v>
+        <v>0.7005545858075497</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585478</v>
+        <v>6.765882447141336</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647865</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692315</v>
+        <v>66.18704531965101</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130631</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995869</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682257</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N15" t="n">
-        <v>116.802998092164</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364175</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099205</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589997</v>
+        <v>89.42517835676722</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437604</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037527013</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791577</v>
+        <v>2.823726598057622</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295285</v>
+        <v>0.04608911748733881</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358799</v>
+        <v>0.5873214315872899</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071734</v>
+        <v>5.221821455385181</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017719</v>
+        <v>17.66235723355232</v>
       </c>
       <c r="J16" t="n">
-        <v>26.6191847188567</v>
+        <v>41.52362521322139</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351403</v>
+        <v>68.23607177895967</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779255</v>
+        <v>87.31867901980492</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886796</v>
+        <v>92.06530404417853</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495246</v>
+        <v>89.87619689008052</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438784</v>
+        <v>83.0152147119926</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061585</v>
+        <v>71.03385750761183</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367354</v>
+        <v>49.18016096682297</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806419</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527104</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171486</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559347</v>
+        <v>0.03203571445021585</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.309332382889892</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>13.40920026627111</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>50.4780366913626</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>111.1279493323011</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>166.5519891000302</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>206.6224700128968</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>229.9073097771149</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>233.6274504100008</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>220.6077765276394</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>188.2836333250452</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>141.3931673628009</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>82.24735029670724</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>29.83641167510344</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>5.731602506100504</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1047465906311913</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.7005545858075498</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>6.765882447141337</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>24.11997148504064</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>66.18704531965102</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>113.1242025687568</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>152.1094507473805</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>177.5045544829041</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>182.2025718587802</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>166.6797570890445</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>133.7751998109171</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>89.42517835676723</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>43.49583647671788</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>13.01249417059198</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>2.823726598057623</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.04608911748733882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.58732143158729</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>5.221821455385182</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>17.66235723355233</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>41.5236252132214</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>68.23607177895968</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>87.31867901980493</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>92.06530404417855</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>89.87619689008054</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>83.01521471199261</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>71.03385750761184</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>49.18016096682299</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>26.40810727846123</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>10.23541076684395</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.509464298600238</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03203571445021586</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35427,10 +35427,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>151.2980666667449</v>
       </c>
       <c r="N12" t="n">
-        <v>231.6067186693945</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M13" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530596</v>
+        <v>99.17865997768853</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631309</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174105</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616832</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039401</v>
+        <v>441.561311225394</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574858</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269379</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385717</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066529</v>
+        <v>65.44045399339315</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995259</v>
+        <v>239.7480006069764</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935437</v>
+        <v>198.3036037288406</v>
       </c>
       <c r="M15" t="n">
-        <v>228.9746993583309</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523843</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687026</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P15" t="n">
-        <v>270.246450416599</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.5206920065948</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763118</v>
+        <v>45.96657995307682</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810868</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070854</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N16" t="n">
-        <v>101.748314384181</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842751</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550934</v>
+        <v>68.31241677250532</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>65.44045399339316</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>239.7480006069765</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M18" t="n">
-        <v>410.005506727916</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>344.1114215768753</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>159.5206920065948</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>99.17865997768854</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>270.6075506262144</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>388.51726959336</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>449.0746100426746</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>441.5613112253941</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>371.309746368698</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>278.8493457412583</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>131.4024681482561</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>119.0966420582448</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>384.3954162709655</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>501.0755843108857</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>530.2032341190004</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>417.9458319213296</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>318.263561036524</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>159.5206920065948</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>45.96657995307683</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>114.9087042801211</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>131.6491810060191</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>134.0083692693091</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>107.6003426260323</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>68.31241677250533</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38098,7 +38098,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>774817.3035652032</v>
+        <v>841065.1650995836</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404724.2260944798</v>
+        <v>406463.2981009819</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11762410.58428957</v>
+        <v>11783336.69528064</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7645104.614253853</v>
+        <v>7631215.020727899</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.906662343224887</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12.20112622735862</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="G11" t="n">
         <v>243.2386572690346</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>9.223763435107132</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>28.80700501538428</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V13" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.6136570700264</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9934051322452</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>300.970439379355</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9978528790433</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.62176764444246</v>
+        <v>97.14353343492363</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1836579111419</v>
+        <v>189.8931039215387</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3642470580309</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>58.02431669862141</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6429625774031</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.27666136637444</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6706769332459</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.341002096764</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952929634875</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>149.5194349989555</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.64693460968148</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2869936420407</v>
+        <v>131.0102864828604</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9934051322451</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>4.715060355622043</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.62176764444244</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>88.47998969135048</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6429625774031</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>136.902442604858</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869936420407</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>17.64693460968146</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>67.41850321461121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>257.0719521914899</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9934051322451</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>40.63129064102394</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>58.21273057308963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.66199767592525</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6706769332458</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869936420407</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="V22" t="n">
-        <v>17.64693460968146</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>237.577506547266</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>222.3536427742455</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>60.44533761123551</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>112.144358069484</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>286.1752255188695</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.67884460201109</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>249.0276152565596</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2851,16 +2851,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.7834924758486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>16.915442650592</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.31590541686241</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>134.2439092740083</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>125.4763835556436</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>22.23783788499738</v>
+        <v>349.7318976273757</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.091193529251335</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.9195131586199</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>275.4805812731079</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>121.2699779972374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>198.7186207060049</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.69980233966131</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>226.9736586744963</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>109.9948971292145</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>306.8133326045273</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>49.38957925603669</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>934.7112791079849</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>706.487660844374</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>471.3355526126313</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>470.5044397581705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>311.266984752715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>164.7324267796</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>26.0016013622155</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,7 +4652,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>619.4388494194218</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206.8126749707503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>32.35964568962331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>582.7883107557723</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4992,16 +4992,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>825.6800813726991</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D11" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E11" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329111</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5086,7 +5086,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225.64353524134</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="C12" t="n">
-        <v>51.19050596021296</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>51.19050596021296</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>51.19050596021296</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>51.19050596021296</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>51.19050596021296</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M12" t="n">
-        <v>555.4329354292295</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N12" t="n">
-        <v>828.8278839945614</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435694</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118267</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W12" t="n">
-        <v>641.2553342118267</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X12" t="n">
-        <v>433.4038340062939</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y12" t="n">
-        <v>225.64353524134</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1039.881094134864</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="C14" t="n">
-        <v>1039.881094134864</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="D14" t="n">
-        <v>1039.881094134864</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="E14" t="n">
-        <v>1039.881094134864</v>
+        <v>760.9020364612786</v>
       </c>
       <c r="F14" t="n">
-        <v>628.8951893452563</v>
+        <v>760.9020364612786</v>
       </c>
       <c r="G14" t="n">
-        <v>210.7200326460188</v>
+        <v>342.2521623848507</v>
       </c>
       <c r="H14" t="n">
-        <v>210.7200326460188</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="I14" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="J14" t="n">
-        <v>147.292913216816</v>
+        <v>96.93923871827232</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1943883367683</v>
+        <v>305.6565612977719</v>
       </c>
       <c r="L14" t="n">
-        <v>799.8264852341947</v>
+        <v>616.8654835480086</v>
       </c>
       <c r="M14" t="n">
-        <v>1244.410349176443</v>
+        <v>979.7519185640748</v>
       </c>
       <c r="N14" t="n">
-        <v>1681.556047289583</v>
+        <v>1333.878237938975</v>
       </c>
       <c r="O14" t="n">
-        <v>2049.152696194594</v>
+        <v>1623.082041653886</v>
       </c>
       <c r="P14" t="n">
-        <v>2325.213548478439</v>
+        <v>1832.236414250555</v>
       </c>
       <c r="Q14" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860973</v>
       </c>
       <c r="R14" t="n">
-        <v>2386.997176142746</v>
+        <v>1813.956096613576</v>
       </c>
       <c r="S14" t="n">
-        <v>2206.003582293108</v>
+        <v>1622.144880531214</v>
       </c>
       <c r="T14" t="n">
-        <v>1986.443736779945</v>
+        <v>1400.506959699401</v>
       </c>
       <c r="U14" t="n">
-        <v>1986.443736779945</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="V14" t="n">
-        <v>1655.380849436374</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="W14" t="n">
-        <v>1655.380849436374</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="X14" t="n">
-        <v>1281.915091175294</v>
+        <v>1146.690289059523</v>
       </c>
       <c r="Y14" t="n">
-        <v>1281.915091175294</v>
+        <v>1146.690289059523</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>794.3005707992622</v>
+        <v>667.4010694781683</v>
       </c>
       <c r="C15" t="n">
-        <v>619.8475415181352</v>
+        <v>492.9480401970413</v>
       </c>
       <c r="D15" t="n">
-        <v>470.913131856884</v>
+        <v>344.01363053579</v>
       </c>
       <c r="E15" t="n">
-        <v>311.6756768514285</v>
+        <v>184.7761755303345</v>
       </c>
       <c r="F15" t="n">
-        <v>253.0652559437301</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="G15" t="n">
-        <v>115.0420614211007</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="H15" t="n">
-        <v>115.0420614211007</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="I15" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8920892923635</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="K15" t="n">
-        <v>351.2426098932701</v>
+        <v>70.35630405681127</v>
       </c>
       <c r="L15" t="n">
-        <v>547.5631775848224</v>
+        <v>396.8557612354195</v>
       </c>
       <c r="M15" t="n">
-        <v>1043.628006052599</v>
+        <v>829.8444494186647</v>
       </c>
       <c r="N15" t="n">
-        <v>1568.529207830409</v>
+        <v>1290.000073167525</v>
       </c>
       <c r="O15" t="n">
-        <v>1982.295581432526</v>
+        <v>1644.53689194854</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.376506858684</v>
+        <v>1912.080877860973</v>
       </c>
       <c r="Q15" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860973</v>
       </c>
       <c r="R15" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860973</v>
       </c>
       <c r="S15" t="n">
-        <v>2295.02858090153</v>
+        <v>1912.080877860973</v>
       </c>
       <c r="T15" t="n">
-        <v>2095.694235349244</v>
+        <v>1912.080877860973</v>
       </c>
       <c r="U15" t="n">
-        <v>1867.517171749761</v>
+        <v>1683.887103985891</v>
       </c>
       <c r="V15" t="n">
-        <v>1632.365063518019</v>
+        <v>1448.734995754148</v>
       </c>
       <c r="W15" t="n">
-        <v>1378.127706789817</v>
+        <v>1194.497639025946</v>
       </c>
       <c r="X15" t="n">
-        <v>1170.276206584284</v>
+        <v>986.6461388204136</v>
       </c>
       <c r="Y15" t="n">
-        <v>962.5159078193303</v>
+        <v>835.6164064982363</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="C16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="D16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="E16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="F16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="G16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="H16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="J16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="K16" t="n">
-        <v>94.61295399245031</v>
+        <v>59.50088325727434</v>
       </c>
       <c r="L16" t="n">
-        <v>208.3725712297702</v>
+        <v>142.2318586473019</v>
       </c>
       <c r="M16" t="n">
-        <v>338.7052604257291</v>
+        <v>239.8491955519034</v>
       </c>
       <c r="N16" t="n">
-        <v>471.3735460023451</v>
+        <v>340.5800267922426</v>
       </c>
       <c r="O16" t="n">
-        <v>577.8978852021171</v>
+        <v>417.6049576856859</v>
       </c>
       <c r="P16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041401</v>
       </c>
       <c r="Q16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041401</v>
       </c>
       <c r="R16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041401</v>
       </c>
       <c r="S16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041401</v>
       </c>
       <c r="T16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041401</v>
       </c>
       <c r="U16" t="n">
-        <v>356.3483963502906</v>
+        <v>327.6587875941801</v>
       </c>
       <c r="V16" t="n">
-        <v>356.3483963502906</v>
+        <v>327.6587875941801</v>
       </c>
       <c r="W16" t="n">
-        <v>66.93122631333</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="X16" t="n">
-        <v>66.93122631333</v>
+        <v>38.24161755721947</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.93122631333</v>
+        <v>38.24161755721947</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1610.258004102812</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C17" t="n">
-        <v>1241.295487162401</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D17" t="n">
-        <v>883.0297885556504</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>883.0297885556504</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>472.0438837660428</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.86872706680532</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.86872706680532</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>147.2929132168158</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>415.194388336768</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>799.8264852341945</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>1244.410349176442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1681.556047289583</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2049.152696194594</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2325.213548478439</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2386.997176142746</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2386.997176142746</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2386.997176142746</v>
+        <v>2376.569186901926</v>
       </c>
       <c r="U17" t="n">
-        <v>2386.997176142746</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="V17" t="n">
-        <v>2386.997176142746</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="W17" t="n">
-        <v>2386.997176142746</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X17" t="n">
-        <v>2386.997176142746</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y17" t="n">
-        <v>1996.857844166934</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>816.2886862824824</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>641.8356570013555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>492.9012473401042</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>333.6637923346487</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>187.1292343615337</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>49.10603983890427</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>49.10603983890427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>113.8920892923635</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>351.2426098932702</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>731.794072001526</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1227.858900469303</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1568.529207830409</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>1982.295581432526</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.376506858684</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2455.301991945213</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2317.016696384751</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2117.682350832464</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>1889.505287232981</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1654.353179001239</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1400.115822273037</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.264322067504</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>984.5040233025504</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.10603983890427</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C19" t="n">
-        <v>49.10603983890427</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D19" t="n">
-        <v>49.10603983890427</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E19" t="n">
-        <v>49.10603983890427</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>49.10603983890427</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>94.61295399245033</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>208.3725712297702</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>338.7052604257291</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>471.3735460023452</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>577.8978852021171</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>356.3483963502906</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>338.5232098758649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>49.10603983890427</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X19" t="n">
-        <v>49.10603983890427</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.10603983890427</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1264.055353925994</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C20" t="n">
-        <v>1264.055353925994</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.055353925994</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E20" t="n">
-        <v>878.2671013277493</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>467.2811965381418</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>147.292913216816</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1943883367682</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>799.8264852341948</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
-        <v>1244.410349176443</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.556047289583</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
-        <v>2049.152696194594</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2325.213548478439</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2455.301991945213</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2455.301991945213</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2414.260284227007</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2414.260284227007</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2414.260284227007</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W20" t="n">
-        <v>2414.260284227007</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.794525965927</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y20" t="n">
-        <v>1650.655193990115</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>737.0662297124688</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>562.6132004313419</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>413.6787907700906</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>254.4413357646351</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>107.9067777915201</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>49.10603983890427</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>49.10603983890427</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>49.10603983890427</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>167.0117154765666</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>547.5631775848224</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.628006052599</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1568.529207830409</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>1982.295581432526</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.376506858684</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2398.06765085842</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2237.794239814737</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2038.45989426245</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>1810.282830662968</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1575.130722431225</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1320.893365703024</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1113.041865497491</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
-        <v>905.2815667325369</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>94.61295399245033</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>208.3725712297702</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>338.7052604257291</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>471.3735460023452</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>577.8978852021171</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>356.3483963502906</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V22" t="n">
-        <v>338.5232098758649</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.10603983890427</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="D23" t="n">
         <v>1422.14692331494</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2198.886095354873</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>2198.886095354873</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X23" t="n">
-        <v>2198.886095354873</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y23" t="n">
-        <v>1808.746763379062</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036444</v>
@@ -6071,22 +6071,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>667.0730876294286</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036444</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1780.41262192169</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C26" t="n">
-        <v>1780.41262192169</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036444</v>
@@ -6229,7 +6229,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6265,13 +6265,13 @@
         <v>1893.689751284805</v>
       </c>
       <c r="W26" t="n">
-        <v>1893.689751284805</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X26" t="n">
-        <v>1893.689751284805</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y26" t="n">
-        <v>1893.689751284805</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036444</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C29" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>882.8926947117851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6496,19 +6496,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628376</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.752638628376</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1871.983983358262</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X29" t="n">
-        <v>1871.983983358262</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y29" t="n">
-        <v>1627.758233382657</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>520.9088977430001</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C31" t="n">
-        <v>351.9727148150932</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8560754027575</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>71.02928752803314</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6660,13 +6660,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>702.5573625732399</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>702.5573625732399</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>702.5573625732399</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1405.321187657107</v>
+        <v>549.6493205341535</v>
       </c>
       <c r="C32" t="n">
-        <v>1036.358670716696</v>
+        <v>180.6868035937418</v>
       </c>
       <c r="D32" t="n">
-        <v>1036.358670716696</v>
+        <v>180.6868035937418</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>180.6868035937418</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6703,7 +6703,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628376</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014691</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X32" t="n">
-        <v>1540.921096014691</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y32" t="n">
-        <v>1540.921096014691</v>
+        <v>936.2491605982752</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036444</v>
@@ -6885,16 +6885,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W34" t="n">
         <v>53.94298182036444</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1760.851696582593</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C35" t="n">
-        <v>1391.889179642181</v>
+        <v>1151.261476083314</v>
       </c>
       <c r="D35" t="n">
-        <v>1033.623481035431</v>
+        <v>792.9957774765639</v>
       </c>
       <c r="E35" t="n">
-        <v>647.8352284371863</v>
+        <v>407.2075248783197</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6970,19 +6970,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.451536646714</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y35" t="n">
-        <v>2147.451536646714</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>216.8339741143508</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>308.6274700262513</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>750.1700033293573</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>332.2061952275442</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1916.245359491378</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1526.106027515566</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>323.3278565882116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>323.3278565882116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>176.4379090903012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1303.85528118563</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="C41" t="n">
-        <v>1303.85528118563</v>
+        <v>665.6547661109871</v>
       </c>
       <c r="D41" t="n">
-        <v>945.5895825788796</v>
+        <v>665.6547661109871</v>
       </c>
       <c r="E41" t="n">
-        <v>945.5895825788796</v>
+        <v>665.6547661109871</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>254.6688613213796</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>254.6688613213796</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2651.997775523615</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.363108495678</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2433.363108495678</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2433.363108495678</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>2080.594453225563</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X41" t="n">
-        <v>2080.594453225563</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1690.455121249752</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7514,19 +7514,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>498.8626623130036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>498.8626623130036</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.8693068625893</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C44" t="n">
-        <v>471.9067899221776</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9067899221776</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628376</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014691</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X44" t="n">
-        <v>1231.008638838401</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y44" t="n">
-        <v>840.8693068625893</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,25 +8771,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>274.3455134968399</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273547</v>
+        <v>212.358227476139</v>
       </c>
       <c r="O12" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>84.40768042974355</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>97.76097998536763</v>
       </c>
       <c r="L15" t="n">
-        <v>184.7485327613344</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>82.65476256012155</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>293.2505618014284</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.65058134701567</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>143.8138784638469</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22597,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>142.630753465213</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2575625303454</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>106.3287818932716</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>204.5813593128142</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>145.4439542280423</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>111.4443843516483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>163.4847355532086</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23354,10 +23354,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>82.70092208806017</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V13" t="n">
-        <v>77.00644937595015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.1201845934542</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.065601849496</v>
+        <v>29.90824481589976</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>178.1163791463312</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>87.04489569476246</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4695617893551</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493642</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.66199767592526</v>
+        <v>72.2743413282671</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663108</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>56.16326077834881</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162.1850455722558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4036579268715</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0053510520544</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
-        <v>137.788117693706</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>51.83555490345138</v>
+        <v>66.73999539781607</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.98188228487141</v>
+        <v>54.63455058802084</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8852840987083</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7811872701283</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361251296812</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>155.2882060203049</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.065601849496</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>155.2827925234213</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3642470580309</v>
+        <v>127.9683306663073</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4695617893551</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.27666136637444</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.66199767592525</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>21.76823432838788</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4036579268715</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>137.7881176937059</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83555490345137</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.9818822848714</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8852840987082</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4361251296812</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>234.4907087141465</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>219.1044951219798</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>108.2009395795176</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.065601849496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9978528790433</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.62176764444244</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>176.7329564170069</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2409063172053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>78.43023200431347</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4695617893551</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.27666136637444</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4036579268715</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>137.7881176937059</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>51.83555490345137</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.9818822848714</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8852840987082</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4361251296812</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>50.78177823929096</v>
       </c>
       <c r="V22" t="n">
-        <v>234.4907087141465</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>117.1055350734169</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>105.3986156958894</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>119.3866425707018</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>270.5894835939966</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>83.55587515959957</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>155.6309576570398</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,16 +24651,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>133.706226406921</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>144.454446180205</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>150.3943596084589</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>261.2070929197286</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.4899323894723</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>281.3996621860679</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>384.6382078567141</v>
+        <v>57.14414811433574</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>162.2186087297996</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25362,16 +25362,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>279.8143285048607</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>48.44219149124928</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>46.03982426181349</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,10 +25645,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>125.2041520583522</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>129.7159104693102</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>59.30821556748145</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>255.2779946417931</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>62.91776807394172</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>237.1334190805543</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448693.3607796695</v>
+        <v>448693.3607796694</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448693.3607796696</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>729981.5974136594</v>
+        <v>628611.9105415219</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>729981.5974136594</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>729981.5974136594</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="C2" t="n">
         <v>141236.5716516325</v>
@@ -26322,22 +26322,22 @@
         <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398032</v>
+        <v>150604.5581398033</v>
       </c>
       <c r="F2" t="n">
-        <v>231326.4874512437</v>
+        <v>198862.5864584595</v>
       </c>
       <c r="G2" t="n">
-        <v>231326.4874512437</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>231326.4874512437</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133938</v>
@@ -26346,7 +26346,7 @@
         <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>326513.677765922</v>
+        <v>195194.8921689334</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185152.0893328019</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55256.55893426014</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>82704.25131371449</v>
+        <v>49441.87186138683</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47231.86264112628</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>8599.193178783524</v>
       </c>
       <c r="F4" t="n">
-        <v>9253.72390068747</v>
+        <v>8990.265499845918</v>
       </c>
       <c r="G4" t="n">
-        <v>9253.72390068747</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
-        <v>9253.72390068747</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
@@ -26444,16 +26444,16 @@
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361485</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>44420.7724568834</v>
+        <v>33615.28060221582</v>
       </c>
       <c r="G5" t="n">
-        <v>44420.7724568834</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>44420.7724568834</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8579.250333059714</v>
+        <v>2416.959224976735</v>
       </c>
       <c r="C6" t="n">
-        <v>72190.18119848796</v>
+        <v>83186.39075652439</v>
       </c>
       <c r="D6" t="n">
-        <v>72190.18119848799</v>
+        <v>83186.39075652442</v>
       </c>
       <c r="E6" t="n">
-        <v>74155.75172367944</v>
+        <v>84656.00905587149</v>
       </c>
       <c r="F6" t="n">
-        <v>-155780.2904805478</v>
+        <v>-39820.67631685245</v>
       </c>
       <c r="G6" t="n">
-        <v>170733.3872853742</v>
+        <v>1418.291708239062</v>
       </c>
       <c r="H6" t="n">
-        <v>170733.3872853742</v>
+        <v>186570.381041041</v>
       </c>
       <c r="I6" t="n">
-        <v>125852.2497355436</v>
+        <v>186570.381041041</v>
       </c>
       <c r="J6" t="n">
-        <v>118048.8660706975</v>
+        <v>123510.4384419347</v>
       </c>
       <c r="K6" t="n">
-        <v>181108.8086698037</v>
+        <v>186570.381041041</v>
       </c>
       <c r="L6" t="n">
-        <v>181108.8086698037</v>
+        <v>186570.381041041</v>
       </c>
       <c r="M6" t="n">
-        <v>172351.2256745901</v>
+        <v>177812.7980458273</v>
       </c>
       <c r="N6" t="n">
-        <v>98404.55735608927</v>
+        <v>137128.5091796542</v>
       </c>
       <c r="O6" t="n">
-        <v>181108.8086698038</v>
+        <v>139338.5183999148</v>
       </c>
       <c r="P6" t="n">
-        <v>181108.8086698037</v>
+        <v>186570.381041041</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>325.6964302438608</v>
+        <v>208.7913421435334</v>
       </c>
       <c r="G3" t="n">
-        <v>325.6964302438608</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>325.6964302438608</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>613.8254979863033</v>
+        <v>478.0202194652434</v>
       </c>
       <c r="G4" t="n">
-        <v>613.8254979863033</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>613.8254979863033</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545555</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>290.6751695247355</v>
+        <v>173.770081424408</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>168.9523220735533</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.04723397322579</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>337.6689842839478</v>
+        <v>201.8637057628879</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.2670532893122</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46177476825221</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839478</v>
+        <v>201.8637057628879</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893122</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839478</v>
+        <v>201.8637057628879</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893122</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.309332382889892</v>
+        <v>0.8393621794714903</v>
       </c>
       <c r="H14" t="n">
-        <v>13.40920026627111</v>
+        <v>8.596117920512402</v>
       </c>
       <c r="I14" t="n">
-        <v>50.4780366913626</v>
+        <v>32.35951042407466</v>
       </c>
       <c r="J14" t="n">
-        <v>111.127949332301</v>
+        <v>71.23981577991846</v>
       </c>
       <c r="K14" t="n">
-        <v>166.5519891000302</v>
+        <v>106.7700168369467</v>
       </c>
       <c r="L14" t="n">
-        <v>206.6224700128967</v>
+        <v>132.4576471369473</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9073097771148</v>
+        <v>147.3846542961234</v>
       </c>
       <c r="N14" t="n">
-        <v>233.6274504100008</v>
+        <v>149.7694920885468</v>
       </c>
       <c r="O14" t="n">
-        <v>220.6077765276394</v>
+        <v>141.4230844164272</v>
       </c>
       <c r="P14" t="n">
-        <v>188.2836333250452</v>
+        <v>120.7013306107247</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.3931673628009</v>
+        <v>90.64167255840196</v>
       </c>
       <c r="R14" t="n">
-        <v>82.24735029670722</v>
+        <v>52.72558450622605</v>
       </c>
       <c r="S14" t="n">
-        <v>29.83641167510343</v>
+        <v>19.1269656647066</v>
       </c>
       <c r="T14" t="n">
-        <v>5.731602506100503</v>
+        <v>3.674307940636451</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.06714897435771922</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7005545858075497</v>
+        <v>0.4490983585728831</v>
       </c>
       <c r="H15" t="n">
-        <v>6.765882447141336</v>
+        <v>4.337344673585477</v>
       </c>
       <c r="I15" t="n">
-        <v>24.11997148504064</v>
+        <v>15.46237769647865</v>
       </c>
       <c r="J15" t="n">
-        <v>66.18704531965101</v>
+        <v>42.42994623692314</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1242025687568</v>
+        <v>72.51953626130631</v>
       </c>
       <c r="L15" t="n">
-        <v>152.1094507473805</v>
+        <v>97.51146596995869</v>
       </c>
       <c r="M15" t="n">
-        <v>177.5045544829041</v>
+        <v>113.7912814682257</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2025718587802</v>
+        <v>116.802998092164</v>
       </c>
       <c r="O15" t="n">
-        <v>166.6797570890445</v>
+        <v>106.8519239364175</v>
       </c>
       <c r="P15" t="n">
-        <v>133.7751998109171</v>
+        <v>85.75808919099205</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.42517835676722</v>
+        <v>57.32701152589996</v>
       </c>
       <c r="R15" t="n">
-        <v>43.49583647671788</v>
+        <v>27.88349282437603</v>
       </c>
       <c r="S15" t="n">
-        <v>13.01249417059198</v>
+        <v>8.341805037527012</v>
       </c>
       <c r="T15" t="n">
-        <v>2.823726598057622</v>
+        <v>1.810181541791576</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04608911748733881</v>
+        <v>0.02954594464295285</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5873214315872899</v>
+        <v>0.3765089776358798</v>
       </c>
       <c r="H16" t="n">
-        <v>5.221821455385181</v>
+        <v>3.347507092071734</v>
       </c>
       <c r="I16" t="n">
-        <v>17.66235723355232</v>
+        <v>11.32265180017719</v>
       </c>
       <c r="J16" t="n">
-        <v>41.52362521322139</v>
+        <v>26.6191847188567</v>
       </c>
       <c r="K16" t="n">
-        <v>68.23607177895967</v>
+        <v>43.74349758351403</v>
       </c>
       <c r="L16" t="n">
-        <v>87.31867901980492</v>
+        <v>55.97661654779254</v>
       </c>
       <c r="M16" t="n">
-        <v>92.06530404417853</v>
+        <v>59.01949364886795</v>
       </c>
       <c r="N16" t="n">
-        <v>89.87619689008052</v>
+        <v>57.61614200495244</v>
       </c>
       <c r="O16" t="n">
-        <v>83.0152147119926</v>
+        <v>53.21783258438783</v>
       </c>
       <c r="P16" t="n">
-        <v>71.03385750761183</v>
+        <v>45.53704944061585</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.18016096682297</v>
+        <v>31.52749266367354</v>
       </c>
       <c r="R16" t="n">
-        <v>26.40810727846123</v>
+        <v>16.92921275806419</v>
       </c>
       <c r="S16" t="n">
-        <v>10.23541076684395</v>
+        <v>6.561524637527103</v>
       </c>
       <c r="T16" t="n">
-        <v>2.509464298600238</v>
+        <v>1.608720177171486</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03203571445021585</v>
+        <v>0.02053685332559347</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.309332382889892</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>13.40920026627111</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>50.4780366913626</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>111.1279493323011</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>166.5519891000302</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>206.6224700128968</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9073097771149</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>233.6274504100008</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>220.6077765276394</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>188.2836333250452</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.3931673628009</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>82.24735029670724</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>29.83641167510344</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>5.731602506100504</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7005545858075498</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>6.765882447141337</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>24.11997148504064</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>66.18704531965102</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>113.1242025687568</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>152.1094507473805</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>177.5045544829041</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2025718587802</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>166.6797570890445</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>133.7751998109171</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.42517835676723</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>43.49583647671788</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>13.01249417059198</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>2.823726598057623</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04608911748733882</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.58732143158729</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>5.221821455385182</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>17.66235723355233</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>41.5236252132214</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>68.23607177895968</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>87.31867901980493</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>92.06530404417855</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>89.87619689008054</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>83.01521471199261</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>71.03385750761184</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.18016096682299</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>26.40810727846123</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>10.23541076684395</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.509464298600238</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03203571445021586</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.309332382889892</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>13.40920026627111</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>50.4780366913626</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>111.1279493323011</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>166.5519891000302</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>206.6224700128968</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9073097771149</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>233.6274504100008</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>220.6077765276394</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>188.2836333250452</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.3931673628009</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>82.24735029670724</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>29.83641167510344</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>5.731602506100504</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7005545858075498</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>6.765882447141337</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>24.11997148504064</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>66.18704531965102</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>113.1242025687568</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>152.1094507473805</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>177.5045544829041</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>182.2025718587802</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>166.6797570890445</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>133.7751998109171</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.42517835676723</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>43.49583647671788</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>13.01249417059198</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>2.823726598057623</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04608911748733882</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.58732143158729</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>5.221821455385182</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>17.66235723355233</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>41.5236252132214</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>68.23607177895968</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>87.31867901980493</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>92.06530404417855</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>89.87619689008054</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>83.01521471199261</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>71.03385750761184</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.18016096682299</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>26.40810727846123</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>10.23541076684395</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.509464298600238</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03203571445021586</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35427,10 +35427,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>151.2980666667449</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023554</v>
+        <v>100.6082676511398</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M13" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>99.17865997768853</v>
+        <v>59.29052642530594</v>
       </c>
       <c r="K14" t="n">
-        <v>270.6075506262144</v>
+        <v>210.8255783631309</v>
       </c>
       <c r="L14" t="n">
-        <v>388.51726959336</v>
+        <v>314.3524467174105</v>
       </c>
       <c r="M14" t="n">
-        <v>449.0746100426746</v>
+        <v>366.5519545616831</v>
       </c>
       <c r="N14" t="n">
-        <v>441.561311225394</v>
+        <v>357.7033529039401</v>
       </c>
       <c r="O14" t="n">
-        <v>371.309746368698</v>
+        <v>292.1250542574858</v>
       </c>
       <c r="P14" t="n">
-        <v>278.8493457412583</v>
+        <v>211.2670430269378</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.4024681482561</v>
+        <v>80.65097334385716</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.44045399339315</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7480006069764</v>
+        <v>32.43907727231495</v>
       </c>
       <c r="L15" t="n">
-        <v>198.3036037288406</v>
+        <v>329.7974314935437</v>
       </c>
       <c r="M15" t="n">
-        <v>501.0755843108857</v>
+        <v>437.3623112962073</v>
       </c>
       <c r="N15" t="n">
-        <v>530.2032341190004</v>
+        <v>464.8036603523842</v>
       </c>
       <c r="O15" t="n">
-        <v>417.9458319213296</v>
+        <v>358.1179987687026</v>
       </c>
       <c r="P15" t="n">
-        <v>318.263561036524</v>
+        <v>270.246450416599</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.5206920065948</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.96657995307682</v>
+        <v>21.47400575763118</v>
       </c>
       <c r="L16" t="n">
-        <v>114.9087042801211</v>
+        <v>83.56664180810867</v>
       </c>
       <c r="M16" t="n">
-        <v>131.6491810060191</v>
+        <v>98.60337061070854</v>
       </c>
       <c r="N16" t="n">
-        <v>134.0083692693091</v>
+        <v>101.748314384181</v>
       </c>
       <c r="O16" t="n">
-        <v>107.6003426260323</v>
+        <v>77.8029604984275</v>
       </c>
       <c r="P16" t="n">
-        <v>68.31241677250532</v>
+        <v>42.81560870550933</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>99.17865997768854</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>270.6075506262144</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>388.51726959336</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>449.0746100426746</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>441.5613112253941</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>371.309746368698</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8493457412583</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.4024681482561</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>65.44045399339316</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7480006069765</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>384.3954162709655</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>501.0755843108857</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>344.1114215768753</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
-        <v>417.9458319213296</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>318.263561036524</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.5206920065948</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.96657995307683</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>114.9087042801211</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>131.6491810060191</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>134.0083692693091</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>107.6003426260323</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>68.31241677250533</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>99.17865997768854</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>270.6075506262144</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>388.51726959336</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>449.0746100426746</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>441.5613112253941</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>371.309746368698</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>278.8493457412583</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.4024681482561</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>119.0966420582448</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>384.3954162709655</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>501.0755843108857</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>530.2032341190004</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>417.9458319213296</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>318.263561036524</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.5206920065948</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.96657995307683</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>114.9087042801211</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>131.6491810060191</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>134.0083692693091</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>107.6003426260323</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>68.31241677250533</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
